--- a/ResultadoEleicoesDistritos/PORTALEGRE_ALTER DO CHÃO.xlsx
+++ b/ResultadoEleicoesDistritos/PORTALEGRE_ALTER DO CHÃO.xlsx
@@ -597,64 +597,64 @@
         <v>798</v>
       </c>
       <c r="H2" t="n">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="I2" t="n">
-        <v>88</v>
+        <v>73</v>
       </c>
       <c r="J2" t="n">
-        <v>333</v>
+        <v>322</v>
       </c>
       <c r="K2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="M2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N2" t="n">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q2" t="n">
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S2" t="n">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="T2" t="n">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="U2" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="V2" t="n">
-        <v>527</v>
+        <v>497</v>
       </c>
       <c r="W2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>531</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>2</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA2" t="n">
         <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>511</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>6</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>8</v>
       </c>
     </row>
   </sheetData>
